--- a/贵阳/新建 XLSX 工作表.xlsx
+++ b/贵阳/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>周五(7.26)</t>
   </si>
@@ -64,13 +64,41 @@
     <t>下午</t>
   </si>
   <si>
-    <t>住宿：如家neo(妇幼湘雅附二）</t>
+    <t>住宿：如家neo(妇幼湘雅附二）
+窑岭湘雅二医院地铁站【7号】
+东塘地铁站-5口【3号线】</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">城市便捷酒店(贵阳世纪金源茶园地铁站店)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>茶园地铁站-B口【2】</t>
+    </r>
   </si>
   <si>
     <t>晚上</t>
   </si>
   <si>
-    <t>住宿：莫林酒店（世界之窗）</t>
+    <t>住宿：莫林酒店（世界之窗）
+白茅铺地铁站-2口【5】</t>
+  </si>
+  <si>
+    <t>苗侗老凯里贵寨苗家酸汤鱼（印象城店）
+【酸汤牛肉】
+【有代金券，美团评价3413，4.8分】
+树厨贵州菜【世纪金源店】
+【贵州菜】
+【有代金券，美团评价5014，4.8分】
+白宫散步【松花路站 （B口出） 下车  】</t>
   </si>
   <si>
     <t>黔灵山公园</t>
@@ -125,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +163,27 @@
     </font>
     <font>
       <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,6 +331,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,137 +691,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,8 +846,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,17 +858,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -882,8 +941,8 @@
       <xdr:rowOff>339725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2247265</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1235075</xdr:rowOff>
     </xdr:to>
@@ -902,8 +961,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1112520" y="6800215"/>
-          <a:ext cx="2165350" cy="895350"/>
+          <a:off x="1009650" y="6800215"/>
+          <a:ext cx="1950085" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -918,16 +977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2031365</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
+      <xdr:rowOff>781685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2783840</xdr:colOff>
+      <xdr:colOff>2606040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>872490</xdr:rowOff>
+      <xdr:rowOff>1317625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,8 +1003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3316605" y="4997450"/>
-          <a:ext cx="2755265" cy="535940"/>
+          <a:off x="2959100" y="5442585"/>
+          <a:ext cx="2606675" cy="535940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,7 +1045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8042275" y="2250440"/>
+          <a:off x="7241540" y="2250440"/>
           <a:ext cx="2367280" cy="440690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,7 +1087,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8128000" y="2738755"/>
+          <a:off x="7327265" y="2738755"/>
           <a:ext cx="867410" cy="1818640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1070,8 +1129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="10057765"/>
-          <a:ext cx="1564005" cy="2230755"/>
+          <a:off x="5594985" y="10103485"/>
+          <a:ext cx="1539240" cy="2299335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,8 +1171,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7785100" y="10084435"/>
-          <a:ext cx="1969135" cy="2207895"/>
+          <a:off x="7164070" y="10130155"/>
+          <a:ext cx="1789430" cy="2276475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,6 +1181,44 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1877060</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="8af17bde7f1d2c4b1baeeacaa5875794"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="935355" y="15706725"/>
+          <a:ext cx="8157210" cy="10213340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1379,20 +1476,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.525" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="38.425" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="35.4" customWidth="1"/>
-    <col min="6" max="8" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5277777777778" customWidth="1"/>
+    <col min="2" max="2" width="29.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="38.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="23.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="56.3333333333333" customWidth="1"/>
+    <col min="6" max="8" width="23.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.3" customHeight="1" spans="1:8">
@@ -1440,82 +1537,589 @@
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="141.7" customHeight="1" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="8" ht="85" customHeight="1" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="44" customHeight="1" spans="1:3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:3">
-      <c r="A13" s="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:3">
+      <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="118" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B28:H83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1533,7 +2137,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1550,7 +2154,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/贵阳/新建 XLSX 工作表.xlsx
+++ b/贵阳/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>周五(7.26)</t>
   </si>
@@ -55,10 +55,58 @@
     <t>上午</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黔灵山公园菜场！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+【导航到玉林面食，开始】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黔灵山公园！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+【南门坐索道上去，然后顺着大家一起走，可以选择索道下来，也可以走路下来】</t>
+    </r>
+  </si>
+  <si>
     <t>中午</t>
   </si>
   <si>
     <t>婚礼！</t>
+  </si>
+  <si>
+    <t>大胖刘烙锅【福州街店】在住的附近</t>
   </si>
   <si>
     <t>下午</t>
@@ -70,6 +118,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">城市便捷酒店(贵阳世纪金源茶园地铁站店)
 </t>
     </r>
@@ -92,13 +147,76 @@
 白茅铺地铁站-2口【5】</t>
   </si>
   <si>
-    <t>苗侗老凯里贵寨苗家酸汤鱼（印象城店）
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苗侗老凯里贵寨苗家酸汤鱼（印象城店）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 【酸汤牛肉】
 【有代金券，美团评价3413，4.8分】
-树厨贵州菜【世纪金源店】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树厨贵州菜【世纪金源店】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 【贵州菜】
 【有代金券，美团评价5014，4.8分】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贵厨【酸汤牛肉】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 白宫散步【松花路站 （B口出） 下车  】</t>
+    </r>
+  </si>
+  <si>
+    <t>甲秀楼</t>
   </si>
   <si>
     <t>黔灵山公园</t>
@@ -153,7 +271,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +280,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -169,6 +294,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -176,15 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -335,6 +460,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,137 +823,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,10 +966,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,9 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -923,6 +1058,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -961,8 +1101,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="6800215"/>
-          <a:ext cx="1950085" cy="895350"/>
+          <a:off x="1112520" y="6800215"/>
+          <a:ext cx="2176145" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,8 +1143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2959100" y="5442585"/>
-          <a:ext cx="2606675" cy="535940"/>
+          <a:off x="3061970" y="5442585"/>
+          <a:ext cx="2832735" cy="535940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,7 +1185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241540" y="2250440"/>
+          <a:off x="8043545" y="2250440"/>
           <a:ext cx="2367280" cy="440690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1087,7 +1227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7327265" y="2738755"/>
+          <a:off x="8129270" y="2738755"/>
           <a:ext cx="867410" cy="1818640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1129,8 +1269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5594985" y="10103485"/>
-          <a:ext cx="1539240" cy="2299335"/>
+          <a:off x="6191885" y="10057765"/>
+          <a:ext cx="1564005" cy="2230755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,8 +1311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7164070" y="10130155"/>
-          <a:ext cx="1789430" cy="2276475"/>
+          <a:off x="7785735" y="10084435"/>
+          <a:ext cx="1969770" cy="2207895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,12 +1353,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="935355" y="15706725"/>
-          <a:ext cx="8157210" cy="10213340"/>
+          <a:off x="1038225" y="17116425"/>
+          <a:ext cx="8856345" cy="9584690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2391410</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2909570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3469640" y="12921615"/>
+          <a:ext cx="2210435" cy="2934335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109855</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2837815</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1173480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17548860" y="2204085"/>
+          <a:ext cx="2727960" cy="1128395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1479,17 +1703,19 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5277777777778" customWidth="1"/>
-    <col min="2" max="2" width="29.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="38.4259259259259" customWidth="1"/>
-    <col min="4" max="4" width="23.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.525" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="38.425" customWidth="1"/>
+    <col min="4" max="4" width="23.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="56.3333333333333" customWidth="1"/>
-    <col min="6" max="8" width="23.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="43.675" customWidth="1"/>
+    <col min="7" max="7" width="23.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="37.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.3" customHeight="1" spans="1:8">
@@ -1516,101 +1742,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="141.7" customHeight="1" spans="1:1">
+    <row r="2" ht="141.7" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="197" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="3" ht="197" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="141.7" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="141.7" customHeight="1" spans="1:8">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="8" ht="85" customHeight="1" spans="1:4">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="44" customHeight="1" spans="1:3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="43.2" spans="1:3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>23</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" ht="118" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="247" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2137,7 +2371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2154,7 +2388,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
